--- a/docs/UI/EDGE-v3-binning-ui.xlsx
+++ b/docs/UI/EDGE-v3-binning-ui.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lanl-my.sharepoint.com/personal/218819_win_lanl_gov/Documents/EDGEv3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chien-chi/Projects/LANL_git/EDGE_workflows/docs/UI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{D0F2F981-FA44-2446-808C-2E978F4DC409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{639F041A-6654-7944-95F6-E0A9D7809F0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C03C9C-B7BE-6A46-92DA-E2DFBDF7D3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26160" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{7C062E53-BD1C-CD43-BBF0-21639CB40CE6}"/>
+    <workbookView xWindow="16480" yWindow="3700" windowWidth="35840" windowHeight="21900" xr2:uid="{7C062E53-BD1C-CD43-BBF0-21639CB40CE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>input</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>EM Probability</t>
-  </si>
-  <si>
-    <t>Probability threshold for EM final classification.</t>
   </si>
   <si>
     <t>By default MaxBin will look for 107 marker genes present in &gt;95% of bacteria. Alternatively you can also choose 40 marker gene sets that are universal among bacteria and archaea (Wu et al., PLoS ONE 2013). This option may be better suited for environment dominated by archaea; however it tend to split genomes into more bins. You can choose between different marker gene sets and see which one works better.</t>
@@ -133,6 +130,15 @@
   <si>
     <t>Required when input is contig only. Please make sure that your abundance information is provided in the following format (\t stands for a tab delimiter): (contig header)\t(abundance). For example:
 A0001 30.89</t>
+  </si>
+  <si>
+    <t>It limits how many times MaxBin2 runs the EM refinement process. 50 is a balance between performance and quality of binning. Users can change it if you think your data needs more or fewer iterations to reach a good convergence (e.g., if you're using very complex or very simple datasets).</t>
+  </si>
+  <si>
+    <t>It's the confidence cutoff for assigning contigs to bins. 90% ensures high-confidence assignments. A lower threshold would increase bin completeness but may reduce purity, while a higher threshold increases purity but may miss borderline contigs.</t>
+  </si>
+  <si>
+    <t>The binning program in EDGE is MaxBin2. MaxBin2 is a tool designed for metagenomic binning, where it clusters assembled contigs from metagenomes into genome bins based on sequence composition and abundance information. </t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,6 +566,9 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -594,6 +603,9 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -612,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -629,10 +641,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -643,10 +655,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -660,10 +672,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
